--- a/Data/ReferenceCase/TechInfo.xlsx
+++ b/Data/ReferenceCase/TechInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/ReferenceCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{2F3932A0-0DC5-40E2-A20D-29819E7E4E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D86551-F102-4828-9A0A-CF1CDC6D0EF1}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{2F3932A0-0DC5-40E2-A20D-29819E7E4E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50D51731-9B46-467F-9EDB-2B1A9688883D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{19B10BFE-A439-418D-8D5B-5AD7B889485C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19B10BFE-A439-418D-8D5B-5AD7B889485C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Technology</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Other Conventional</t>
+  </si>
+  <si>
+    <t>Minimum Load</t>
   </si>
 </sst>
 </file>
@@ -455,119 +458,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA860AA5-64D3-4141-A933-69BFE2AD87D0}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
